--- a/stats/summers/table_2020_2021.xlsx
+++ b/stats/summers/table_2020_2021.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -35,46 +35,109 @@
     <t xml:space="preserve">Total active hours</t>
   </si>
   <si>
+    <t xml:space="preserve">1380.33333333333</t>
+  </si>
+  <si>
     <t xml:space="preserve">% active hours</t>
   </si>
   <si>
-    <t xml:space="preserve">Average Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Thallus temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Thallus temp active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAR</t>
+    <t xml:space="preserve">47.9282407407407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.03715277777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-18.8333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.839929623444191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max TT active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean PAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">295.907816206048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. PAR</t>
   </si>
   <si>
     <t xml:space="preserve">Max Par</t>
   </si>
   <si>
+    <t xml:space="preserve">1355</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAX Yield</t>
   </si>
   <si>
-    <t xml:space="preserve">Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETR</t>
+    <t xml:space="preserve">0.538666666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.336498659389448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mean ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9871591454668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Dev. ETR </t>
   </si>
   <si>
     <t xml:space="preserve">Max ETR</t>
   </si>
   <si>
-    <t xml:space="preserve">mean air T</t>
+    <t xml:space="preserve">220.633333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean air T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. air T</t>
   </si>
   <si>
     <t xml:space="preserve">min air T</t>
@@ -83,7 +146,10 @@
     <t xml:space="preserve">max air T</t>
   </si>
   <si>
-    <t xml:space="preserve">RH (%)</t>
+    <t xml:space="preserve">mean RH (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sd. RH</t>
   </si>
 </sst>
 </file>
@@ -451,13 +517,13 @@
       <c r="E2" t="n">
         <v>1268</v>
       </c>
-      <c r="F2" t="n">
-        <v>1380.33333333333</v>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>55.4861111111111</v>
@@ -471,13 +537,13 @@
       <c r="E3" t="n">
         <v>44.0277777777778</v>
       </c>
-      <c r="F3" t="n">
-        <v>47.9282407407407</v>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>-5.07208333333327</v>
@@ -491,308 +557,448 @@
       <c r="E4" t="n">
         <v>-6.03715277777771</v>
       </c>
-      <c r="F4" t="n">
-        <v>-6.03715277777771</v>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>-18.4</v>
+        <v>6.64566850396078</v>
       </c>
       <c r="C5" t="n">
-        <v>-18.7</v>
+        <v>7.30592117953177</v>
       </c>
       <c r="D5" t="n">
-        <v>-18.9</v>
+        <v>6.58280636056386</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-18.8333333333333</v>
+        <v>6.65422545813167</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3</v>
+        <v>-18.4</v>
       </c>
       <c r="C6" t="n">
-        <v>10.5</v>
+        <v>-18.7</v>
       </c>
       <c r="D6" t="n">
-        <v>8.3</v>
+        <v>-18.9</v>
       </c>
       <c r="E6" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9.36666666666667</v>
+        <v>-18.9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.262891113892356</v>
+        <v>12.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1.45411764705883</v>
+        <v>10.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.806782334384857</v>
+        <v>8.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0.258888888888889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.839929623444191</v>
+        <v>9.3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.9</v>
+        <v>-0.262891113892356</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.7</v>
+        <v>1.45411764705883</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.2</v>
+        <v>0.806782334384857</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-6.1</v>
+        <v>0.258888888888889</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.45178340400456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.03997514582721</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.25338501345923</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.73149350117794</v>
+      </c>
+      <c r="F9" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.45411764705883</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.806782334384857</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.258888888888889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.839929623444191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>165.58448060075</v>
+        <v>-7.9</v>
       </c>
       <c r="C10" t="n">
-        <v>302.556078431373</v>
+        <v>-6.7</v>
       </c>
       <c r="D10" t="n">
-        <v>350.764195583596</v>
+        <v>-4.2</v>
       </c>
       <c r="E10" t="n">
-        <v>234.403174603174</v>
-      </c>
-      <c r="F10" t="n">
-        <v>295.907816206048</v>
+        <v>-7.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>1253</v>
+        <v>12.3</v>
       </c>
       <c r="C11" t="n">
-        <v>915</v>
+        <v>10.5</v>
       </c>
       <c r="D11" t="n">
-        <v>2036</v>
+        <v>8.3</v>
       </c>
       <c r="E11" t="n">
-        <v>1114</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1355</v>
+        <v>9.3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.471</v>
+        <v>165.58448060075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.482</v>
+        <v>302.556078431373</v>
       </c>
       <c r="D12" t="n">
-        <v>0.658</v>
+        <v>350.764195583596</v>
       </c>
       <c r="E12" t="n">
-        <v>0.476</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.538666666666667</v>
+        <v>234.403174603174</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
-        <v>0.229105624741552</v>
+        <v>193.981956463447</v>
       </c>
       <c r="C13" t="n">
-        <v>0.31828</v>
+        <v>221.22934096383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.436233438485804</v>
+        <v>343.186516917874</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25498253968254</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.336498659389448</v>
+        <v>236.177379771829</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>41.5108313286427</v>
+        <v>1253</v>
       </c>
       <c r="C14" t="n">
-        <v>41.7835294117647</v>
+        <v>915</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2981861198738</v>
+        <v>2036</v>
       </c>
       <c r="E14" t="n">
-        <v>26.8797619047619</v>
-      </c>
-      <c r="F14" t="n">
-        <v>41.9871591454668</v>
+        <v>1114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>373.394</v>
+        <v>0.471</v>
       </c>
       <c r="C15" t="n">
-        <v>132.9</v>
+        <v>0.482</v>
       </c>
       <c r="D15" t="n">
-        <v>385.8</v>
+        <v>0.658</v>
       </c>
       <c r="E15" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>220.633333333333</v>
+        <v>0.476</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.229105624741552</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.31828</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.436233438485804</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
+        <v>0.25498253968254</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.0964588982528284</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.10138421503412</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.114711294384465</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
+        <v>0.116941455030222</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>41.5108313286427</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>41.7835294117647</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>57.2981861198738</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
+        <v>26.8797619047619</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>51.8209088326112</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.812615781405</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>58.2242213966314</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
+        <v>28.0715469922656</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="n">
+        <v>373.394</v>
+      </c>
+      <c r="C20" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
